--- a/개인정보20200616152350.xlsx
+++ b/개인정보20200616152350.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Govkr_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3746224-DBFE-4629-878A-5FC54B4AF381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F10596-9302-4009-B5F9-0674CFCD8998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{36EDC60A-19AB-48B8-9103-BA02EFD49C53}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>번호</t>
   </si>
@@ -59,16 +59,19 @@
     <t>결과</t>
   </si>
   <si>
+    <t xml:space="preserve">이동준 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">본인확인용 </t>
+  </si>
+  <si>
     <t>주민등록등본</t>
   </si>
   <si>
     <t>주민등록초본</t>
   </si>
   <si>
-    <t xml:space="preserve">이동준 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">본인확인용 </t>
+    <t>정상</t>
   </si>
 </sst>
 </file>
@@ -114,8 +117,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,94 +441,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4372E5-5BA6-41F9-BD8D-8ABA4F1E3787}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>19921207</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>19921207</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2">
+        <v>20200616</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>20200616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
